--- a/Резы/Респа для МЕ-51б на 2019 год.xlsx
+++ b/Резы/Респа для МЕ-51б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -107,59 +107,59 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -173,7 +173,7 @@
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -201,6 +201,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -209,22 +216,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="5"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -595,7 +595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -611,7 +611,7 @@
     <col width="20.5" customWidth="1" min="3" max="3"/>
     <col width="93.8" customWidth="1" min="4" max="4"/>
     <col width="95.25" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="22" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -655,7 +655,7 @@
     <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ВТ</t>
+          <t>ПН</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -668,135 +668,135 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
           <t>Производственный менеджмент: лекция (общ)</t>
         </is>
       </c>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="7" t="n">
+    <row r="4" ht="34" customHeight="1">
+      <c r="A4" s="9" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Технологии цифрового телерадиовещания: лекция (общ)</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="n"/>
-      <c r="F3" s="7" t="n">
-        <v>308</v>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>Папаев А.Б.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>СР</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Оптические сети: лекция (общ)</t>
         </is>
       </c>
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="3" t="n">
+        <v>308</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Папаев А.Б.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="34" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>Оптические сети: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="6" t="n"/>
-      <c r="B5" s="7" t="n">
+    <row r="6" ht="34" customHeight="1">
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной предачи данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="E5" s="10" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>ЧТ</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Оптические сети: лекция (общ)</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="n"/>
-      <c r="F6" s="7" t="n">
-        <v>101</v>
-      </c>
-      <c r="G6" s="7" t="inlineStr">
-        <is>
-          <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
     <row r="7" ht="34" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>ПТ</t>
+          <t>ЧТ</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
@@ -807,79 +807,156 @@
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D7" s="11" t="n"/>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Оптические сети: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Шестаков И.И.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="34" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>ПТ</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="12" t="n"/>
-      <c r="B8" s="3" t="n">
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D8" s="11" t="n"/>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="D9" s="11" t="n"/>
+      <c r="E9" s="7" t="inlineStr">
         <is>
           <t>Технологии цифрового телерадиовещания: лекция (общ)</t>
         </is>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F9" s="6" t="n">
         <v>308</v>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G9" s="6" t="inlineStr">
         <is>
           <t>Папаев А.Б.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="7" t="n">
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D9" s="10" t="n"/>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>Технологии цифрового телерадиовещания: ПР (общ)</t>
         </is>
       </c>
-      <c r="F9" s="6" t="n"/>
-      <c r="G9" s="6" t="n"/>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="9" t="n"/>
+    </row>
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="13" t="n"/>
+    </row>
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -891,7 +968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -909,7 +986,7 @@
     <col width="23.5" customWidth="1" min="5" max="5"/>
     <col width="69.14999999999999" customWidth="1" min="6" max="6"/>
     <col width="26.5" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
     <col width="22" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -963,7 +1040,7 @@
     <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ВТ</t>
+          <t>ПН</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -976,317 +1053,393 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E2" s="14" t="n"/>
+      <c r="F2" s="14" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
           <t>Производственный менеджмент: лекция (общ)</t>
         </is>
       </c>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="13" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="E3" s="15" t="n"/>
+      <c r="F3" s="15" t="n"/>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="3" t="n">
+    <row r="4" ht="34" customHeight="1">
+      <c r="A4" s="12" t="n"/>
+      <c r="B4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>Оптические сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="13" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="3" t="n">
+      <c r="E4" s="15" t="n"/>
+      <c r="F4" s="15" t="n"/>
+      <c r="G4" s="8" t="n"/>
+      <c r="H4" s="6" t="n">
         <v>301</v>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="6" t="n"/>
-      <c r="B4" s="7" t="n">
+    <row r="5" ht="34" customHeight="1">
+      <c r="A5" s="9" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="7" t="n">
-        <v>331</v>
-      </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t>Будылдина Н.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>СР</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Производственный менеджмент: ПР (общ)</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="13" t="n"/>
+      <c r="E5" s="14" t="n"/>
+      <c r="F5" s="14" t="n"/>
       <c r="G5" s="5" t="n"/>
       <c r="H5" s="3" t="n">
+        <v>331</v>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Будылдина Н.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="34" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>Производственный менеджмент: ПР (общ)</t>
+        </is>
+      </c>
+      <c r="E6" s="15" t="n"/>
+      <c r="F6" s="15" t="n"/>
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="6" t="n">
         <v>421</v>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I6" s="6" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="12" t="n"/>
-      <c r="B6" s="15" t="n">
+    <row r="7" ht="34" customHeight="1">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="inlineStr">
+      <c r="C7" s="13" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D6" s="11" t="n"/>
-      <c r="H6" s="15" t="n"/>
-      <c r="I6" s="15" t="n"/>
-    </row>
-    <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="7" t="n">
+      <c r="D7" s="11" t="n"/>
+      <c r="H7" s="13" t="n"/>
+      <c r="I7" s="13" t="n"/>
+    </row>
+    <row r="8" ht="34" customHeight="1">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Оптические сети: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="14" t="n"/>
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="7" t="n">
-        <v>301</v>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>Шестаков И.И.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>ЧТ</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Оптические сети: лекция (общ)</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="14" t="n"/>
       <c r="G8" s="5" t="n"/>
       <c r="H8" s="3" t="n">
+        <v>301</v>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>Шестаков И.И.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>ЧТ</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>Оптические сети: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="n"/>
+      <c r="F9" s="15" t="n"/>
+      <c r="G9" s="8" t="n"/>
+      <c r="H9" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I9" s="6" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="12" t="n"/>
-      <c r="B9" s="3" t="n">
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>Сетевые технологии выскоскоростной передачи даных: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="3" t="n">
+      <c r="E10" s="15" t="n"/>
+      <c r="F10" s="15" t="n"/>
+      <c r="G10" s="8" t="n"/>
+      <c r="H10" s="6" t="n">
         <v>215</v>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>Тарасов Е.С.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="7" t="n">
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D10" s="10" t="n"/>
-      <c r="E10" s="16" t="n"/>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="16" t="n"/>
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Технологии цифрового телерадиовещания: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="7" t="n">
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="3" t="n">
         <v>308</v>
       </c>
-      <c r="I10" s="7" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>Папаев А.Б.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="E12" s="15" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="12" t="n"/>
-      <c r="B12" s="3" t="n">
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t>Технологии цифрового телерадиовещания: лекция (общ)</t>
         </is>
       </c>
-      <c r="E12" s="13" t="n"/>
-      <c r="F12" s="13" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="3" t="n">
+      <c r="E13" s="15" t="n"/>
+      <c r="F13" s="15" t="n"/>
+      <c r="G13" s="8" t="n"/>
+      <c r="H13" s="6" t="n">
         <v>308</v>
       </c>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="I13" s="6" t="inlineStr">
         <is>
           <t>Папаев А.Б.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="34" customHeight="1">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="7" t="n">
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Технологии цифрового телерадиовещания: ПР (общ)</t>
         </is>
       </c>
-      <c r="E13" s="14" t="n"/>
-      <c r="F13" s="14" t="n"/>
-      <c r="G13" s="9" t="n"/>
-      <c r="H13" s="6" t="n"/>
-      <c r="I13" s="6" t="n"/>
+      <c r="E14" s="14" t="n"/>
+      <c r="F14" s="14" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="9" t="n"/>
+      <c r="I14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D15" s="11" t="n"/>
+      <c r="H15" s="13" t="n"/>
+      <c r="I15" s="13" t="n"/>
+    </row>
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="14" t="n"/>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
@@ -1295,17 +1448,22 @@
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1317,7 +1475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1335,7 +1493,7 @@
     <col width="29.5" customWidth="1" min="5" max="5"/>
     <col width="93.8" customWidth="1" min="6" max="6"/>
     <col width="89.45" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
     <col width="22" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -1389,7 +1547,7 @@
     <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ВТ</t>
+          <t>ПН</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -1402,362 +1560,443 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E2" s="14" t="n"/>
+      <c r="F2" s="14" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
           <t>Производственный менеджмент: лекция (общ)</t>
         </is>
       </c>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="13" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="E3" s="15" t="n"/>
+      <c r="F3" s="15" t="n"/>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="3" t="n">
+    <row r="4" ht="34" customHeight="1">
+      <c r="A4" s="12" t="n"/>
+      <c r="B4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>Оптические сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="13" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="3" t="n">
+      <c r="E4" s="15" t="n"/>
+      <c r="F4" s="15" t="n"/>
+      <c r="G4" s="8" t="n"/>
+      <c r="H4" s="6" t="n">
         <v>301</v>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="6" t="n"/>
-      <c r="B4" s="7" t="n">
+    <row r="5" ht="34" customHeight="1">
+      <c r="A5" s="9" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="7" t="n">
-        <v>331</v>
-      </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t>Будылдина Н.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>СР</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Производственный менеджмент: ПР (общ)</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="13" t="n"/>
+      <c r="E5" s="14" t="n"/>
+      <c r="F5" s="14" t="n"/>
       <c r="G5" s="5" t="n"/>
       <c r="H5" s="3" t="n">
+        <v>331</v>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Будылдина Н.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="34" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>Производственный менеджмент: ПР (общ)</t>
+        </is>
+      </c>
+      <c r="E6" s="15" t="n"/>
+      <c r="F6" s="15" t="n"/>
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="6" t="n">
         <v>421</v>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I6" s="6" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="12" t="n"/>
-      <c r="B6" s="3" t="n">
+    <row r="7" ht="34" customHeight="1">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D6" s="11" t="n"/>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="D7" s="11" t="n"/>
+      <c r="F7" s="7" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной предачи данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="7" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>АКТ_зал, 331</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>ХЗ, 331</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="7" t="n">
+    <row r="8" ht="34" customHeight="1">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Оптические сети: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="14" t="n"/>
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="7" t="n">
-        <v>301</v>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>Шестаков И.И.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>ЧТ</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Оптические сети: лекция (общ)</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="14" t="n"/>
       <c r="G8" s="5" t="n"/>
       <c r="H8" s="3" t="n">
+        <v>301</v>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>Шестаков И.И.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>ЧТ</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>Оптические сети: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="n"/>
+      <c r="F9" s="15" t="n"/>
+      <c r="G9" s="8" t="n"/>
+      <c r="H9" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I9" s="6" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="12" t="n"/>
-      <c r="B9" s="3" t="n">
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="12" t="n"/>
+      <c r="B10" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>Сетевые технологии выскоскоростной передачи даных: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="3" t="n">
+      <c r="E10" s="15" t="n"/>
+      <c r="F10" s="15" t="n"/>
+      <c r="G10" s="8" t="n"/>
+      <c r="H10" s="6" t="n">
         <v>215</v>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>Тарасов Е.С.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="51" customHeight="1">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="7" t="n">
+    <row r="11" ht="51" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Технологии цифрового телерадиовещания: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E10" s="9" t="n"/>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="7" t="inlineStr">
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>308
 215</t>
         </is>
       </c>
-      <c r="I10" s="7" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>Папаев А.Б.
 Тарасов Е.С.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="E12" s="15" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="12" t="n"/>
-      <c r="B12" s="3" t="n">
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t>Технологии цифрового телерадиовещания: лекция (общ)</t>
         </is>
       </c>
-      <c r="E12" s="13" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="11" t="n"/>
-      <c r="H12" s="3" t="n">
+      <c r="E13" s="15" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="11" t="n"/>
+      <c r="H13" s="6" t="n">
         <v>308</v>
       </c>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="I13" s="6" t="inlineStr">
         <is>
           <t>Папаев А.Б.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="34" customHeight="1">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="7" t="n">
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Технологии цифрового телерадиовещания: ПР (общ)</t>
         </is>
       </c>
-      <c r="E13" s="14" t="n"/>
-      <c r="F13" s="9" t="n"/>
-      <c r="G13" s="10" t="n"/>
-      <c r="H13" s="6" t="n"/>
-      <c r="I13" s="6" t="n"/>
+      <c r="E14" s="14" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="10" t="n"/>
+      <c r="H14" s="9" t="n"/>
+      <c r="I14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D15" s="11" t="n"/>
+      <c r="H15" s="13" t="n"/>
+      <c r="I15" s="13" t="n"/>
+    </row>
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="14" t="n"/>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1769,7 +2008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1785,7 +2024,7 @@
     <col width="20.5" customWidth="1" min="3" max="3"/>
     <col width="89.45" customWidth="1" min="4" max="4"/>
     <col width="56.1" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="22" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1829,7 +2068,7 @@
     <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ВТ</t>
+          <t>ПН</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -1842,193 +2081,270 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
           <t>Производственный менеджмент: лекция (общ)</t>
         </is>
       </c>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="7" t="n">
+    <row r="4" ht="34" customHeight="1">
+      <c r="A4" s="9" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Оптические сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="E3" s="9" t="n"/>
-      <c r="F3" s="7" t="n">
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+    <row r="5" ht="34" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>СР</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>Производственный менеджмент: ПР (общ)</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>Производственный менеджмент: ДИФ (общ)</t>
         </is>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F5" s="6" t="n">
         <v>421</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="3" t="n">
+    <row r="6" ht="34" customHeight="1">
+      <c r="A6" s="12" t="n"/>
+      <c r="B6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="3" t="n">
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="6" t="n">
         <v>331</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="7" t="n">
+    <row r="7" ht="34" customHeight="1">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Оптические сети: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E6" s="10" t="n"/>
-      <c r="F6" s="7" t="n">
+      <c r="E7" s="10" t="n"/>
+      <c r="F7" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="G6" s="7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+    <row r="8" ht="34" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
           <t>Оптические сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="3" t="n">
+      <c r="E8" s="8" t="n"/>
+      <c r="F8" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="7" t="n">
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии выскоскоростной передачи даных: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E8" s="9" t="n"/>
-      <c r="F8" s="7" t="n">
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="3" t="n">
         <v>215</v>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>Тарасов Е.С.</t>
         </is>
       </c>
     </row>
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="13" t="n"/>
+    </row>
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
